--- a/biology/Zoologie/Coniophanes_piceivittis/Coniophanes_piceivittis.xlsx
+++ b/biology/Zoologie/Coniophanes_piceivittis/Coniophanes_piceivittis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coniophanes piceivittis est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coniophanes piceivittis est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mexique, au Guatemala, au Honduras, au Salvador, au Nicaragua et au Costa Rica[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mexique, au Guatemala, au Honduras, au Salvador, au Nicaragua et au Costa Rica. 
 Sa présence au Belize est incertaine.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 août 2013) :
 Coniophanes piceivittis frangivirgatus Peters, 1950
 Coniophanes piceivittis piceivittis Cope, 1869</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1870 "1869" : Seventh Contribution to the Herpetology of Tropical America. Proceedings of the American Philosophical Society, vol. 11, no 81, p. 147-192 (texte intégral).
 Peters, 1950 : A new snake of the genus Coniophanes from Veracruz, Mexico. Copeia, vol. 1950, no 4, p. 279-280.</t>
